--- a/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1062,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,7 +1969,7 @@
         <v>1.55</v>
       </c>
       <c r="AT5">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
         <v>0.64</v>
@@ -4452,7 +4452,7 @@
         <v>1.55</v>
       </c>
       <c r="AT18">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
         <v>1.45</v>
@@ -8463,7 +8463,7 @@
         <v>1.36</v>
       </c>
       <c r="AT39">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.53</v>
@@ -9033,7 +9033,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
         <v>0.82</v>
@@ -11710,7 +11710,7 @@
         <v>0.27</v>
       </c>
       <c r="AT56">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>0.89</v>
@@ -13620,7 +13620,7 @@
         <v>1.91</v>
       </c>
       <c r="AT66">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>1.02</v>
@@ -14381,7 +14381,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>0.45</v>
@@ -16103,7 +16103,7 @@
         <v>0.73</v>
       </c>
       <c r="AT79">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -16482,7 +16482,7 @@
         <v>0.2</v>
       </c>
       <c r="AS81">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT81">
         <v>0.45</v>
@@ -18395,7 +18395,7 @@
         <v>1.45</v>
       </c>
       <c r="AT91">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU91">
         <v>0.9</v>
@@ -20493,7 +20493,7 @@
         <v>0.17</v>
       </c>
       <c r="AS102">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
         <v>0.27</v>
@@ -21451,7 +21451,7 @@
         <v>1.82</v>
       </c>
       <c r="AT107">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU107">
         <v>1.28</v>
@@ -23931,7 +23931,7 @@
         <v>2.67</v>
       </c>
       <c r="AS120">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT120">
         <v>2.09</v>
@@ -25650,7 +25650,7 @@
         <v>2.14</v>
       </c>
       <c r="AS129">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT129">
         <v>1.73</v>
@@ -26799,7 +26799,7 @@
         <v>1.64</v>
       </c>
       <c r="AT135">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU135">
         <v>1.38</v>
@@ -27369,7 +27369,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT138">
         <v>1.18</v>
@@ -28900,7 +28900,7 @@
         <v>1.55</v>
       </c>
       <c r="AT146">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU146">
         <v>1.92</v>
@@ -30616,7 +30616,7 @@
         <v>1.33</v>
       </c>
       <c r="AS155">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT155">
         <v>1.27</v>
@@ -32529,7 +32529,7 @@
         <v>0.82</v>
       </c>
       <c r="AT165">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU165">
         <v>1.11</v>
@@ -33672,7 +33672,7 @@
         <v>2.1</v>
       </c>
       <c r="AS171">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT171">
         <v>2.18</v>
@@ -34873,6 +34873,197 @@
       </c>
       <c r="BK177">
         <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5568177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44996.35416666666</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>76</v>
+      </c>
+      <c r="H178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>82</v>
+      </c>
+      <c r="P178" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q178">
+        <v>5</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+      <c r="S178">
+        <v>8</v>
+      </c>
+      <c r="T178">
+        <v>3.4</v>
+      </c>
+      <c r="U178">
+        <v>1.8</v>
+      </c>
+      <c r="V178">
+        <v>3.75</v>
+      </c>
+      <c r="W178">
+        <v>1.57</v>
+      </c>
+      <c r="X178">
+        <v>2.25</v>
+      </c>
+      <c r="Y178">
+        <v>3.5</v>
+      </c>
+      <c r="Z178">
+        <v>1.26</v>
+      </c>
+      <c r="AA178">
+        <v>10.5</v>
+      </c>
+      <c r="AB178">
+        <v>1.04</v>
+      </c>
+      <c r="AC178">
+        <v>2.5</v>
+      </c>
+      <c r="AD178">
+        <v>2.6</v>
+      </c>
+      <c r="AE178">
+        <v>3.2</v>
+      </c>
+      <c r="AF178">
+        <v>1.08</v>
+      </c>
+      <c r="AG178">
+        <v>5.9</v>
+      </c>
+      <c r="AH178">
+        <v>1.57</v>
+      </c>
+      <c r="AI178">
+        <v>2.31</v>
+      </c>
+      <c r="AJ178">
+        <v>3.1</v>
+      </c>
+      <c r="AK178">
+        <v>1.36</v>
+      </c>
+      <c r="AL178">
+        <v>2.05</v>
+      </c>
+      <c r="AM178">
+        <v>1.66</v>
+      </c>
+      <c r="AN178">
+        <v>1.34</v>
+      </c>
+      <c r="AO178">
+        <v>1.39</v>
+      </c>
+      <c r="AP178">
+        <v>1.52</v>
+      </c>
+      <c r="AQ178">
+        <v>1.64</v>
+      </c>
+      <c r="AR178">
+        <v>1.18</v>
+      </c>
+      <c r="AS178">
+        <v>1.5</v>
+      </c>
+      <c r="AT178">
+        <v>1.33</v>
+      </c>
+      <c r="AU178">
+        <v>1.86</v>
+      </c>
+      <c r="AV178">
+        <v>0.9</v>
+      </c>
+      <c r="AW178">
+        <v>2.76</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>3</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>6</v>
+      </c>
+      <c r="BI178">
+        <v>3</v>
+      </c>
+      <c r="BJ178">
+        <v>9</v>
+      </c>
+      <c r="BK178">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,9 @@
     <t>['23', '32']</t>
   </si>
   <si>
+    <t>['30', '45', '45+3', '90+1']</t>
+  </si>
+  <si>
     <t>['53', '57']</t>
   </si>
   <si>
@@ -701,6 +704,9 @@
   </si>
   <si>
     <t>['47', '55']</t>
+  </si>
+  <si>
+    <t>['53', '78']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +1503,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1587,7 +1593,7 @@
         <v>1.82</v>
       </c>
       <c r="AT3">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1775,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
         <v>1.45</v>
@@ -1879,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>-1</v>
@@ -2070,7 +2076,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -2160,7 +2166,7 @@
         <v>0.73</v>
       </c>
       <c r="AT6">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2539,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT8">
         <v>0.82</v>
@@ -2730,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT9">
         <v>1.64</v>
@@ -2834,7 +2840,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>-1</v>
@@ -2924,7 +2930,7 @@
         <v>1.64</v>
       </c>
       <c r="AT10">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3216,7 +3222,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3407,7 +3413,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>-1</v>
@@ -3688,7 +3694,7 @@
         <v>1.45</v>
       </c>
       <c r="AT14">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3789,7 +3795,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3876,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT15">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3980,7 +3986,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4258,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT17">
         <v>1.18</v>
@@ -4643,7 +4649,7 @@
         <v>1.82</v>
       </c>
       <c r="AT19">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU19">
         <v>0.86</v>
@@ -4834,7 +4840,7 @@
         <v>0.73</v>
       </c>
       <c r="AT20">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4935,7 +4941,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5213,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT22">
         <v>0.82</v>
@@ -5404,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
         <v>2.18</v>
@@ -5508,7 +5514,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5595,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT24">
         <v>1.64</v>
@@ -5699,7 +5705,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5786,10 +5792,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6272,7 +6278,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6553,7 +6559,7 @@
         <v>0.73</v>
       </c>
       <c r="AT29">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6932,7 +6938,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT31">
         <v>0.82</v>
@@ -7418,7 +7424,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7505,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
         <v>1.64</v>
@@ -7699,7 +7705,7 @@
         <v>1.55</v>
       </c>
       <c r="AT35">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU35">
         <v>1.85</v>
@@ -7800,7 +7806,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7887,7 +7893,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT36">
         <v>2.18</v>
@@ -8081,7 +8087,7 @@
         <v>1.55</v>
       </c>
       <c r="AT37">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU37">
         <v>0.85</v>
@@ -8269,7 +8275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT38">
         <v>0.45</v>
@@ -8460,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT39">
         <v>1.33</v>
@@ -8564,7 +8570,7 @@
         <v>103</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -8654,7 +8660,7 @@
         <v>0.27</v>
       </c>
       <c r="AT40">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU40">
         <v>1.01</v>
@@ -8845,7 +8851,7 @@
         <v>1.82</v>
       </c>
       <c r="AT41">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU41">
         <v>1.07</v>
@@ -9328,7 +9334,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -10092,7 +10098,7 @@
         <v>107</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>-1</v>
@@ -10373,7 +10379,7 @@
         <v>1.55</v>
       </c>
       <c r="AT49">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10561,7 +10567,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
         <v>0.45</v>
@@ -10665,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>-1</v>
@@ -10752,10 +10758,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU51">
         <v>1.38</v>
@@ -10943,10 +10949,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT52">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU52">
         <v>1.37</v>
@@ -11137,7 +11143,7 @@
         <v>1.55</v>
       </c>
       <c r="AT53">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU53">
         <v>0.86</v>
@@ -11238,7 +11244,7 @@
         <v>110</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>-1</v>
@@ -11325,10 +11331,10 @@
         <v>1.67</v>
       </c>
       <c r="AS54">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT54">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU54">
         <v>1</v>
@@ -11516,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT55">
         <v>1.64</v>
@@ -11620,7 +11626,7 @@
         <v>111</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12384,7 +12390,7 @@
         <v>113</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>-1</v>
@@ -12957,7 +12963,7 @@
         <v>82</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>-1</v>
@@ -13426,7 +13432,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT65">
         <v>0.64</v>
@@ -13617,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
         <v>1.33</v>
@@ -13721,7 +13727,7 @@
         <v>82</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>-1</v>
@@ -13811,7 +13817,7 @@
         <v>0.27</v>
       </c>
       <c r="AT67">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU67">
         <v>0.89</v>
@@ -13912,7 +13918,7 @@
         <v>116</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13999,10 +14005,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT68">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU68">
         <v>1.37</v>
@@ -14190,7 +14196,7 @@
         <v>0.25</v>
       </c>
       <c r="AS69">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT69">
         <v>0.45</v>
@@ -14294,7 +14300,7 @@
         <v>118</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14384,7 +14390,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU70">
         <v>1.76</v>
@@ -14572,10 +14578,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU71">
         <v>1.92</v>
@@ -14766,7 +14772,7 @@
         <v>1.55</v>
       </c>
       <c r="AT72">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU72">
         <v>0.86</v>
@@ -14867,7 +14873,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>-1</v>
@@ -15631,7 +15637,7 @@
         <v>123</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>-1</v>
@@ -16291,7 +16297,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT80">
         <v>0.64</v>
@@ -16676,7 +16682,7 @@
         <v>0.27</v>
       </c>
       <c r="AT82">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU82">
         <v>0.89</v>
@@ -16864,10 +16870,10 @@
         <v>0.2</v>
       </c>
       <c r="AS83">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT83">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU83">
         <v>0.98</v>
@@ -16968,7 +16974,7 @@
         <v>104</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17055,7 +17061,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT84">
         <v>1.73</v>
@@ -17246,10 +17252,10 @@
         <v>2.5</v>
       </c>
       <c r="AS85">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT85">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU85">
         <v>1</v>
@@ -17440,7 +17446,7 @@
         <v>1.91</v>
       </c>
       <c r="AT86">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU86">
         <v>1.31</v>
@@ -17628,7 +17634,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
         <v>0.64</v>
@@ -17822,7 +17828,7 @@
         <v>1.55</v>
       </c>
       <c r="AT88">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU88">
         <v>0.86</v>
@@ -17923,7 +17929,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>-1</v>
@@ -18114,7 +18120,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>-1</v>
@@ -18305,7 +18311,7 @@
         <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>-1</v>
@@ -18586,7 +18592,7 @@
         <v>1.64</v>
       </c>
       <c r="AT92">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU92">
         <v>0</v>
@@ -18878,7 +18884,7 @@
         <v>132</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q94">
         <v>-1</v>
@@ -18965,7 +18971,7 @@
         <v>1.6</v>
       </c>
       <c r="AS94">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT94">
         <v>1.45</v>
@@ -19069,7 +19075,7 @@
         <v>133</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>-1</v>
@@ -19260,7 +19266,7 @@
         <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19451,7 +19457,7 @@
         <v>134</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19732,7 +19738,7 @@
         <v>2.36</v>
       </c>
       <c r="AT98">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU98">
         <v>1.17</v>
@@ -19920,7 +19926,7 @@
         <v>0.8</v>
       </c>
       <c r="AS99">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT99">
         <v>0.64</v>
@@ -20111,7 +20117,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
         <v>0.64</v>
@@ -20496,7 +20502,7 @@
         <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU102">
         <v>1.96</v>
@@ -20684,10 +20690,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT103">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU103">
         <v>1</v>
@@ -20788,7 +20794,7 @@
         <v>82</v>
       </c>
       <c r="P104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q104">
         <v>-1</v>
@@ -20878,7 +20884,7 @@
         <v>0.27</v>
       </c>
       <c r="AT104">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU104">
         <v>0.83</v>
@@ -20979,7 +20985,7 @@
         <v>138</v>
       </c>
       <c r="P105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q105">
         <v>-1</v>
@@ -21639,7 +21645,7 @@
         <v>1.33</v>
       </c>
       <c r="AS108">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT108">
         <v>1.45</v>
@@ -22024,7 +22030,7 @@
         <v>1.27</v>
       </c>
       <c r="AT110">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU110">
         <v>1.16</v>
@@ -22316,7 +22322,7 @@
         <v>82</v>
       </c>
       <c r="P112" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q112">
         <v>-1</v>
@@ -22403,7 +22409,7 @@
         <v>2.14</v>
       </c>
       <c r="AS112">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT112">
         <v>2.18</v>
@@ -22594,7 +22600,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT113">
         <v>1.18</v>
@@ -22785,7 +22791,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT114">
         <v>0.64</v>
@@ -22979,7 +22985,7 @@
         <v>1.91</v>
       </c>
       <c r="AT115">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU115">
         <v>1.31</v>
@@ -23170,7 +23176,7 @@
         <v>2.36</v>
       </c>
       <c r="AT116">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU116">
         <v>1.17</v>
@@ -23271,7 +23277,7 @@
         <v>144</v>
       </c>
       <c r="P117" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23358,7 +23364,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT117">
         <v>0.64</v>
@@ -23552,7 +23558,7 @@
         <v>1.64</v>
       </c>
       <c r="AT118">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -23653,7 +23659,7 @@
         <v>82</v>
       </c>
       <c r="P119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q119">
         <v>-1</v>
@@ -23934,7 +23940,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU120">
         <v>1.96</v>
@@ -24122,7 +24128,7 @@
         <v>2.33</v>
       </c>
       <c r="AS121">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
         <v>1.73</v>
@@ -24316,7 +24322,7 @@
         <v>1.64</v>
       </c>
       <c r="AT122">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU122">
         <v>0</v>
@@ -24417,7 +24423,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24608,7 +24614,7 @@
         <v>146</v>
       </c>
       <c r="P124" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q124">
         <v>-1</v>
@@ -24698,7 +24704,7 @@
         <v>2.36</v>
       </c>
       <c r="AT124">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU124">
         <v>1.17</v>
@@ -24889,7 +24895,7 @@
         <v>1.45</v>
       </c>
       <c r="AT125">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU125">
         <v>0.9</v>
@@ -25077,7 +25083,7 @@
         <v>0.71</v>
       </c>
       <c r="AS126">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT126">
         <v>0.64</v>
@@ -25459,7 +25465,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT128">
         <v>1.27</v>
@@ -25563,7 +25569,7 @@
         <v>150</v>
       </c>
       <c r="P129" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q129">
         <v>-1</v>
@@ -25844,7 +25850,7 @@
         <v>1.55</v>
       </c>
       <c r="AT130">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU130">
         <v>1.19</v>
@@ -26223,7 +26229,7 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT132">
         <v>0.82</v>
@@ -26327,7 +26333,7 @@
         <v>153</v>
       </c>
       <c r="P133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q133">
         <v>-1</v>
@@ -26608,7 +26614,7 @@
         <v>1.27</v>
       </c>
       <c r="AT134">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU134">
         <v>1.22</v>
@@ -26796,7 +26802,7 @@
         <v>1.13</v>
       </c>
       <c r="AS135">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT135">
         <v>1.33</v>
@@ -27178,7 +27184,7 @@
         <v>2.25</v>
       </c>
       <c r="AS137">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT137">
         <v>2.18</v>
@@ -27942,7 +27948,7 @@
         <v>1.38</v>
       </c>
       <c r="AS141">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT141">
         <v>1.27</v>
@@ -28136,7 +28142,7 @@
         <v>1.27</v>
       </c>
       <c r="AT142">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU142">
         <v>1.26</v>
@@ -28619,7 +28625,7 @@
         <v>159</v>
       </c>
       <c r="P145" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q145">
         <v>-1</v>
@@ -28709,7 +28715,7 @@
         <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU145">
         <v>0.93</v>
@@ -28810,7 +28816,7 @@
         <v>160</v>
       </c>
       <c r="P146" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -28897,7 +28903,7 @@
         <v>1.11</v>
       </c>
       <c r="AS146">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
         <v>1.33</v>
@@ -29091,7 +29097,7 @@
         <v>1.55</v>
       </c>
       <c r="AT147">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU147">
         <v>1.19</v>
@@ -29192,7 +29198,7 @@
         <v>161</v>
       </c>
       <c r="P148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29282,7 +29288,7 @@
         <v>1.82</v>
       </c>
       <c r="AT148">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU148">
         <v>1.32</v>
@@ -29470,10 +29476,10 @@
         <v>1.78</v>
       </c>
       <c r="AS149">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT149">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU149">
         <v>1.35</v>
@@ -29574,7 +29580,7 @@
         <v>82</v>
       </c>
       <c r="P150" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29661,7 +29667,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT150">
         <v>1.64</v>
@@ -29956,7 +29962,7 @@
         <v>162</v>
       </c>
       <c r="P152" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30043,10 +30049,10 @@
         <v>0.22</v>
       </c>
       <c r="AS152">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT152">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU152">
         <v>1.38</v>
@@ -30147,7 +30153,7 @@
         <v>136</v>
       </c>
       <c r="P153" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30338,7 +30344,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q154">
         <v>-1</v>
@@ -30428,7 +30434,7 @@
         <v>1.27</v>
       </c>
       <c r="AT154">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU154">
         <v>1.27</v>
@@ -30720,7 +30726,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q156">
         <v>-1</v>
@@ -30911,7 +30917,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -30998,7 +31004,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT157">
         <v>1.45</v>
@@ -31675,7 +31681,7 @@
         <v>164</v>
       </c>
       <c r="P161" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q161">
         <v>12</v>
@@ -31956,7 +31962,7 @@
         <v>1.55</v>
       </c>
       <c r="AT162">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AU162">
         <v>0.86</v>
@@ -32057,7 +32063,7 @@
         <v>165</v>
       </c>
       <c r="P163" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q163">
         <v>-1</v>
@@ -32144,10 +32150,10 @@
         <v>0.8</v>
       </c>
       <c r="AS163">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT163">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU163">
         <v>1.44</v>
@@ -32335,10 +32341,10 @@
         <v>0.5</v>
       </c>
       <c r="AS164">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT164">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU164">
         <v>1.1</v>
@@ -32439,7 +32445,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -32526,7 +32532,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT165">
         <v>1.33</v>
@@ -32720,7 +32726,7 @@
         <v>1.55</v>
       </c>
       <c r="AT166">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU166">
         <v>1.29</v>
@@ -32908,10 +32914,10 @@
         <v>1.9</v>
       </c>
       <c r="AS167">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT167">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU167">
         <v>1.75</v>
@@ -33012,7 +33018,7 @@
         <v>168</v>
       </c>
       <c r="P168" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33290,7 +33296,7 @@
         <v>0.5</v>
       </c>
       <c r="AS169">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT169">
         <v>0.45</v>
@@ -33585,7 +33591,7 @@
         <v>122</v>
       </c>
       <c r="P171" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q171">
         <v>-1</v>
@@ -33967,7 +33973,7 @@
         <v>171</v>
       </c>
       <c r="P173" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34731,7 +34737,7 @@
         <v>174</v>
       </c>
       <c r="P177" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35064,6 +35070,961 @@
       </c>
       <c r="BK178">
         <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5568201</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44996.42708333334</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>80</v>
+      </c>
+      <c r="H179" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>82</v>
+      </c>
+      <c r="P179" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+      <c r="R179">
+        <v>4</v>
+      </c>
+      <c r="S179">
+        <v>5</v>
+      </c>
+      <c r="T179">
+        <v>3.25</v>
+      </c>
+      <c r="U179">
+        <v>1.83</v>
+      </c>
+      <c r="V179">
+        <v>4</v>
+      </c>
+      <c r="W179">
+        <v>1.63</v>
+      </c>
+      <c r="X179">
+        <v>2.14</v>
+      </c>
+      <c r="Y179">
+        <v>3.94</v>
+      </c>
+      <c r="Z179">
+        <v>1.21</v>
+      </c>
+      <c r="AA179">
+        <v>11.25</v>
+      </c>
+      <c r="AB179">
+        <v>1.01</v>
+      </c>
+      <c r="AC179">
+        <v>2.38</v>
+      </c>
+      <c r="AD179">
+        <v>2.7</v>
+      </c>
+      <c r="AE179">
+        <v>3.1</v>
+      </c>
+      <c r="AF179">
+        <v>1.14</v>
+      </c>
+      <c r="AG179">
+        <v>5.5</v>
+      </c>
+      <c r="AH179">
+        <v>1.62</v>
+      </c>
+      <c r="AI179">
+        <v>2.2</v>
+      </c>
+      <c r="AJ179">
+        <v>2.88</v>
+      </c>
+      <c r="AK179">
+        <v>1.4</v>
+      </c>
+      <c r="AL179">
+        <v>2.07</v>
+      </c>
+      <c r="AM179">
+        <v>1.64</v>
+      </c>
+      <c r="AN179">
+        <v>1.31</v>
+      </c>
+      <c r="AO179">
+        <v>1.36</v>
+      </c>
+      <c r="AP179">
+        <v>1.5</v>
+      </c>
+      <c r="AQ179">
+        <v>1.91</v>
+      </c>
+      <c r="AR179">
+        <v>1.82</v>
+      </c>
+      <c r="AS179">
+        <v>1.75</v>
+      </c>
+      <c r="AT179">
+        <v>1.92</v>
+      </c>
+      <c r="AU179">
+        <v>1.13</v>
+      </c>
+      <c r="AV179">
+        <v>1.15</v>
+      </c>
+      <c r="AW179">
+        <v>2.28</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>2</v>
+      </c>
+      <c r="BG179">
+        <v>9</v>
+      </c>
+      <c r="BH179">
+        <v>1</v>
+      </c>
+      <c r="BI179">
+        <v>5</v>
+      </c>
+      <c r="BJ179">
+        <v>3</v>
+      </c>
+      <c r="BK179">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5568228</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44997.35416666666</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>67</v>
+      </c>
+      <c r="H180" t="s">
+        <v>65</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>82</v>
+      </c>
+      <c r="P180" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q180">
+        <v>1</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>3</v>
+      </c>
+      <c r="T180">
+        <v>2.4</v>
+      </c>
+      <c r="U180">
+        <v>1.91</v>
+      </c>
+      <c r="V180">
+        <v>6.5</v>
+      </c>
+      <c r="W180">
+        <v>1.68</v>
+      </c>
+      <c r="X180">
+        <v>2.05</v>
+      </c>
+      <c r="Y180">
+        <v>4.33</v>
+      </c>
+      <c r="Z180">
+        <v>1.19</v>
+      </c>
+      <c r="AA180">
+        <v>13.5</v>
+      </c>
+      <c r="AB180">
+        <v>1.03</v>
+      </c>
+      <c r="AC180">
+        <v>1.7</v>
+      </c>
+      <c r="AD180">
+        <v>3.32</v>
+      </c>
+      <c r="AE180">
+        <v>5.2</v>
+      </c>
+      <c r="AF180">
+        <v>1.15</v>
+      </c>
+      <c r="AG180">
+        <v>5.25</v>
+      </c>
+      <c r="AH180">
+        <v>1.54</v>
+      </c>
+      <c r="AI180">
+        <v>2.37</v>
+      </c>
+      <c r="AJ180">
+        <v>2.6</v>
+      </c>
+      <c r="AK180">
+        <v>1.44</v>
+      </c>
+      <c r="AL180">
+        <v>2.87</v>
+      </c>
+      <c r="AM180">
+        <v>1.37</v>
+      </c>
+      <c r="AN180">
+        <v>1.17</v>
+      </c>
+      <c r="AO180">
+        <v>1.34</v>
+      </c>
+      <c r="AP180">
+        <v>1.9</v>
+      </c>
+      <c r="AQ180">
+        <v>1.55</v>
+      </c>
+      <c r="AR180">
+        <v>0.73</v>
+      </c>
+      <c r="AS180">
+        <v>1.5</v>
+      </c>
+      <c r="AT180">
+        <v>0.75</v>
+      </c>
+      <c r="AU180">
+        <v>1.58</v>
+      </c>
+      <c r="AV180">
+        <v>1.22</v>
+      </c>
+      <c r="AW180">
+        <v>2.8</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>4</v>
+      </c>
+      <c r="BG180">
+        <v>7</v>
+      </c>
+      <c r="BH180">
+        <v>2</v>
+      </c>
+      <c r="BI180">
+        <v>13</v>
+      </c>
+      <c r="BJ180">
+        <v>6</v>
+      </c>
+      <c r="BK180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5568250</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44997.35416666666</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>78</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>92</v>
+      </c>
+      <c r="P181" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>-1</v>
+      </c>
+      <c r="S181">
+        <v>-1</v>
+      </c>
+      <c r="T181">
+        <v>3</v>
+      </c>
+      <c r="U181">
+        <v>1.8</v>
+      </c>
+      <c r="V181">
+        <v>4.75</v>
+      </c>
+      <c r="W181">
+        <v>1.75</v>
+      </c>
+      <c r="X181">
+        <v>1.93</v>
+      </c>
+      <c r="Y181">
+        <v>4.5</v>
+      </c>
+      <c r="Z181">
+        <v>1.17</v>
+      </c>
+      <c r="AA181">
+        <v>14.5</v>
+      </c>
+      <c r="AB181">
+        <v>1.02</v>
+      </c>
+      <c r="AC181">
+        <v>2.05</v>
+      </c>
+      <c r="AD181">
+        <v>3</v>
+      </c>
+      <c r="AE181">
+        <v>3.4</v>
+      </c>
+      <c r="AF181">
+        <v>1.17</v>
+      </c>
+      <c r="AG181">
+        <v>4.85</v>
+      </c>
+      <c r="AH181">
+        <v>1.8</v>
+      </c>
+      <c r="AI181">
+        <v>1.98</v>
+      </c>
+      <c r="AJ181">
+        <v>3.4</v>
+      </c>
+      <c r="AK181">
+        <v>1.33</v>
+      </c>
+      <c r="AL181">
+        <v>2.65</v>
+      </c>
+      <c r="AM181">
+        <v>1.42</v>
+      </c>
+      <c r="AN181">
+        <v>1.27</v>
+      </c>
+      <c r="AO181">
+        <v>1.41</v>
+      </c>
+      <c r="AP181">
+        <v>1.56</v>
+      </c>
+      <c r="AQ181">
+        <v>0.82</v>
+      </c>
+      <c r="AR181">
+        <v>0.27</v>
+      </c>
+      <c r="AS181">
+        <v>0.83</v>
+      </c>
+      <c r="AT181">
+        <v>0.33</v>
+      </c>
+      <c r="AU181">
+        <v>1.09</v>
+      </c>
+      <c r="AV181">
+        <v>0.68</v>
+      </c>
+      <c r="AW181">
+        <v>1.77</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>-1</v>
+      </c>
+      <c r="BG181">
+        <v>-1</v>
+      </c>
+      <c r="BH181">
+        <v>-1</v>
+      </c>
+      <c r="BI181">
+        <v>-1</v>
+      </c>
+      <c r="BJ181">
+        <v>-1</v>
+      </c>
+      <c r="BK181">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5568274</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44997.4375</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>72</v>
+      </c>
+      <c r="H182" t="s">
+        <v>69</v>
+      </c>
+      <c r="I182">
+        <v>3</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>4</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>175</v>
+      </c>
+      <c r="P182" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q182">
+        <v>6</v>
+      </c>
+      <c r="R182">
+        <v>7</v>
+      </c>
+      <c r="S182">
+        <v>13</v>
+      </c>
+      <c r="T182">
+        <v>1.91</v>
+      </c>
+      <c r="U182">
+        <v>2.2</v>
+      </c>
+      <c r="V182">
+        <v>7.5</v>
+      </c>
+      <c r="W182">
+        <v>1.44</v>
+      </c>
+      <c r="X182">
+        <v>2.55</v>
+      </c>
+      <c r="Y182">
+        <v>2.95</v>
+      </c>
+      <c r="Z182">
+        <v>1.35</v>
+      </c>
+      <c r="AA182">
+        <v>7.75</v>
+      </c>
+      <c r="AB182">
+        <v>1.07</v>
+      </c>
+      <c r="AC182">
+        <v>1.36</v>
+      </c>
+      <c r="AD182">
+        <v>4</v>
+      </c>
+      <c r="AE182">
+        <v>7.5</v>
+      </c>
+      <c r="AF182">
+        <v>1.03</v>
+      </c>
+      <c r="AG182">
+        <v>8.1</v>
+      </c>
+      <c r="AH182">
+        <v>1.33</v>
+      </c>
+      <c r="AI182">
+        <v>2.93</v>
+      </c>
+      <c r="AJ182">
+        <v>2.08</v>
+      </c>
+      <c r="AK182">
+        <v>1.73</v>
+      </c>
+      <c r="AL182">
+        <v>2.37</v>
+      </c>
+      <c r="AM182">
+        <v>1.51</v>
+      </c>
+      <c r="AN182">
+        <v>1.07</v>
+      </c>
+      <c r="AO182">
+        <v>1.21</v>
+      </c>
+      <c r="AP182">
+        <v>2.85</v>
+      </c>
+      <c r="AQ182">
+        <v>1.64</v>
+      </c>
+      <c r="AR182">
+        <v>0.45</v>
+      </c>
+      <c r="AS182">
+        <v>1.75</v>
+      </c>
+      <c r="AT182">
+        <v>0.42</v>
+      </c>
+      <c r="AU182">
+        <v>1.44</v>
+      </c>
+      <c r="AV182">
+        <v>1.33</v>
+      </c>
+      <c r="AW182">
+        <v>2.77</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>12</v>
+      </c>
+      <c r="BG182">
+        <v>2</v>
+      </c>
+      <c r="BH182">
+        <v>7</v>
+      </c>
+      <c r="BI182">
+        <v>5</v>
+      </c>
+      <c r="BJ182">
+        <v>19</v>
+      </c>
+      <c r="BK182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5568296</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44997.52083333334</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>66</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>82</v>
+      </c>
+      <c r="P183" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q183">
+        <v>2</v>
+      </c>
+      <c r="R183">
+        <v>5</v>
+      </c>
+      <c r="S183">
+        <v>7</v>
+      </c>
+      <c r="T183">
+        <v>4.33</v>
+      </c>
+      <c r="U183">
+        <v>1.8</v>
+      </c>
+      <c r="V183">
+        <v>3</v>
+      </c>
+      <c r="W183">
+        <v>1.68</v>
+      </c>
+      <c r="X183">
+        <v>2.15</v>
+      </c>
+      <c r="Y183">
+        <v>4.1</v>
+      </c>
+      <c r="Z183">
+        <v>1.2</v>
+      </c>
+      <c r="AA183">
+        <v>13</v>
+      </c>
+      <c r="AB183">
+        <v>1.04</v>
+      </c>
+      <c r="AC183">
+        <v>3.4</v>
+      </c>
+      <c r="AD183">
+        <v>2.9</v>
+      </c>
+      <c r="AE183">
+        <v>2.15</v>
+      </c>
+      <c r="AF183">
+        <v>1.15</v>
+      </c>
+      <c r="AG183">
+        <v>4.8</v>
+      </c>
+      <c r="AH183">
+        <v>1.69</v>
+      </c>
+      <c r="AI183">
+        <v>2.07</v>
+      </c>
+      <c r="AJ183">
+        <v>3.1</v>
+      </c>
+      <c r="AK183">
+        <v>1.36</v>
+      </c>
+      <c r="AL183">
+        <v>2.5</v>
+      </c>
+      <c r="AM183">
+        <v>1.47</v>
+      </c>
+      <c r="AN183">
+        <v>1.72</v>
+      </c>
+      <c r="AO183">
+        <v>1.41</v>
+      </c>
+      <c r="AP183">
+        <v>1.22</v>
+      </c>
+      <c r="AQ183">
+        <v>1.36</v>
+      </c>
+      <c r="AR183">
+        <v>2.09</v>
+      </c>
+      <c r="AS183">
+        <v>1.25</v>
+      </c>
+      <c r="AT183">
+        <v>2.17</v>
+      </c>
+      <c r="AU183">
+        <v>1.24</v>
+      </c>
+      <c r="AV183">
+        <v>0</v>
+      </c>
+      <c r="AW183">
+        <v>1.24</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>0</v>
+      </c>
+      <c r="BG183">
+        <v>3</v>
+      </c>
+      <c r="BH183">
+        <v>9</v>
+      </c>
+      <c r="BI183">
+        <v>7</v>
+      </c>
+      <c r="BJ183">
+        <v>9</v>
+      </c>
+      <c r="BK183">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,12 @@
     <t>['30', '45', '45+3', '90+1']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['53', '57']</t>
   </si>
   <si>
@@ -1068,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1408,7 @@
         <v>1.27</v>
       </c>
       <c r="AT2">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1503,7 +1509,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1885,7 +1891,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>-1</v>
@@ -2076,7 +2082,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>-1</v>
@@ -2354,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
         <v>2.18</v>
@@ -2840,7 +2846,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>-1</v>
@@ -3222,7 +3228,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3312,7 +3318,7 @@
         <v>2.36</v>
       </c>
       <c r="AT12">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3413,7 +3419,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>-1</v>
@@ -3795,7 +3801,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3986,7 +3992,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4073,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT16">
         <v>1.27</v>
@@ -4455,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4941,7 +4947,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5031,7 +5037,7 @@
         <v>1.55</v>
       </c>
       <c r="AT21">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5514,7 +5520,7 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5705,7 +5711,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5986,7 +5992,7 @@
         <v>1.27</v>
       </c>
       <c r="AT26">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6278,7 +6284,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7424,7 +7430,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7806,7 +7812,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8084,7 +8090,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT37">
         <v>1.92</v>
@@ -8278,7 +8284,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU38">
         <v>1.24</v>
@@ -8570,7 +8576,7 @@
         <v>103</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -8657,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT40">
         <v>0.42</v>
@@ -9233,7 +9239,7 @@
         <v>1.82</v>
       </c>
       <c r="AT43">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU43">
         <v>1.34</v>
@@ -9334,7 +9340,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -10098,7 +10104,7 @@
         <v>107</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>-1</v>
@@ -10570,7 +10576,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU50">
         <v>1.92</v>
@@ -10671,7 +10677,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>-1</v>
@@ -11140,7 +11146,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
         <v>0.75</v>
@@ -11244,7 +11250,7 @@
         <v>110</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>-1</v>
@@ -11626,7 +11632,7 @@
         <v>111</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -11713,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT56">
         <v>1.33</v>
@@ -12390,7 +12396,7 @@
         <v>113</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>-1</v>
@@ -12963,7 +12969,7 @@
         <v>82</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>-1</v>
@@ -13435,7 +13441,7 @@
         <v>1.75</v>
       </c>
       <c r="AT65">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU65">
         <v>1.38</v>
@@ -13727,7 +13733,7 @@
         <v>82</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>-1</v>
@@ -13814,7 +13820,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT67">
         <v>1.92</v>
@@ -13918,7 +13924,7 @@
         <v>116</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14199,7 +14205,7 @@
         <v>0.83</v>
       </c>
       <c r="AT69">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU69">
         <v>1</v>
@@ -14300,7 +14306,7 @@
         <v>118</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14769,7 +14775,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT72">
         <v>2.17</v>
@@ -14873,7 +14879,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>-1</v>
@@ -15637,7 +15643,7 @@
         <v>123</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>-1</v>
@@ -16491,7 +16497,7 @@
         <v>1.5</v>
       </c>
       <c r="AT81">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.96</v>
@@ -16679,7 +16685,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT82">
         <v>0.75</v>
@@ -16974,7 +16980,7 @@
         <v>104</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17637,7 +17643,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU87">
         <v>1.92</v>
@@ -17825,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT88">
         <v>0.42</v>
@@ -17929,7 +17935,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>-1</v>
@@ -18120,7 +18126,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>-1</v>
@@ -18311,7 +18317,7 @@
         <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>-1</v>
@@ -18780,7 +18786,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
         <v>1.27</v>
@@ -18884,7 +18890,7 @@
         <v>132</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>-1</v>
@@ -19075,7 +19081,7 @@
         <v>133</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>-1</v>
@@ -19266,7 +19272,7 @@
         <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19457,7 +19463,7 @@
         <v>134</v>
       </c>
       <c r="P97" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19929,7 +19935,7 @@
         <v>0.83</v>
       </c>
       <c r="AT99">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU99">
         <v>1</v>
@@ -20311,7 +20317,7 @@
         <v>1.91</v>
       </c>
       <c r="AT101">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU101">
         <v>1.31</v>
@@ -20794,7 +20800,7 @@
         <v>82</v>
       </c>
       <c r="P104" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q104">
         <v>-1</v>
@@ -20881,7 +20887,7 @@
         <v>2.6</v>
       </c>
       <c r="AS104">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT104">
         <v>2.17</v>
@@ -20985,7 +20991,7 @@
         <v>138</v>
       </c>
       <c r="P105" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>-1</v>
@@ -21072,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT105">
         <v>0.82</v>
@@ -21839,7 +21845,7 @@
         <v>1.45</v>
       </c>
       <c r="AT109">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU109">
         <v>0.9</v>
@@ -22322,7 +22328,7 @@
         <v>82</v>
       </c>
       <c r="P112" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q112">
         <v>-1</v>
@@ -23277,7 +23283,7 @@
         <v>144</v>
       </c>
       <c r="P117" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23367,7 +23373,7 @@
         <v>1.75</v>
       </c>
       <c r="AT117">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU117">
         <v>1.06</v>
@@ -23659,7 +23665,7 @@
         <v>82</v>
       </c>
       <c r="P119" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q119">
         <v>-1</v>
@@ -23746,7 +23752,7 @@
         <v>2.2</v>
       </c>
       <c r="AS119">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT119">
         <v>1.73</v>
@@ -24423,7 +24429,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24513,7 +24519,7 @@
         <v>1.91</v>
       </c>
       <c r="AT123">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU123">
         <v>1.31</v>
@@ -24614,7 +24620,7 @@
         <v>146</v>
       </c>
       <c r="P124" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q124">
         <v>-1</v>
@@ -25274,7 +25280,7 @@
         <v>1.57</v>
       </c>
       <c r="AS127">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT127">
         <v>1.18</v>
@@ -25569,7 +25575,7 @@
         <v>150</v>
       </c>
       <c r="P129" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q129">
         <v>-1</v>
@@ -26041,7 +26047,7 @@
         <v>1.82</v>
       </c>
       <c r="AT131">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU131">
         <v>1.21</v>
@@ -26333,7 +26339,7 @@
         <v>153</v>
       </c>
       <c r="P133" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q133">
         <v>-1</v>
@@ -26420,7 +26426,7 @@
         <v>1.13</v>
       </c>
       <c r="AS133">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT133">
         <v>1.64</v>
@@ -27569,7 +27575,7 @@
         <v>1.64</v>
       </c>
       <c r="AT139">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU139">
         <v>0</v>
@@ -28521,7 +28527,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT144">
         <v>1.45</v>
@@ -28625,7 +28631,7 @@
         <v>159</v>
       </c>
       <c r="P145" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q145">
         <v>-1</v>
@@ -28816,7 +28822,7 @@
         <v>160</v>
       </c>
       <c r="P146" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29198,7 +29204,7 @@
         <v>161</v>
       </c>
       <c r="P148" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29580,7 +29586,7 @@
         <v>82</v>
       </c>
       <c r="P150" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29858,10 +29864,10 @@
         <v>0.44</v>
       </c>
       <c r="AS151">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT151">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU151">
         <v>0.86</v>
@@ -29962,7 +29968,7 @@
         <v>162</v>
       </c>
       <c r="P152" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30153,7 +30159,7 @@
         <v>136</v>
       </c>
       <c r="P153" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30240,7 +30246,7 @@
         <v>2</v>
       </c>
       <c r="AS153">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT153">
         <v>2.18</v>
@@ -30344,7 +30350,7 @@
         <v>82</v>
       </c>
       <c r="P154" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q154">
         <v>-1</v>
@@ -30726,7 +30732,7 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q156">
         <v>-1</v>
@@ -30917,7 +30923,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31389,7 +31395,7 @@
         <v>1.45</v>
       </c>
       <c r="AT159">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU159">
         <v>0.93</v>
@@ -31681,7 +31687,7 @@
         <v>164</v>
       </c>
       <c r="P161" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q161">
         <v>12</v>
@@ -31959,7 +31965,7 @@
         <v>0.3</v>
       </c>
       <c r="AS162">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT162">
         <v>0.33</v>
@@ -32063,7 +32069,7 @@
         <v>165</v>
       </c>
       <c r="P163" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q163">
         <v>-1</v>
@@ -32445,7 +32451,7 @@
         <v>82</v>
       </c>
       <c r="P165" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -33018,7 +33024,7 @@
         <v>168</v>
       </c>
       <c r="P168" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33105,7 +33111,7 @@
         <v>1.5</v>
       </c>
       <c r="AS168">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AT168">
         <v>1.64</v>
@@ -33299,7 +33305,7 @@
         <v>1.25</v>
       </c>
       <c r="AT169">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU169">
         <v>1.25</v>
@@ -33591,7 +33597,7 @@
         <v>122</v>
       </c>
       <c r="P171" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q171">
         <v>-1</v>
@@ -33973,7 +33979,7 @@
         <v>171</v>
       </c>
       <c r="P173" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34737,7 +34743,7 @@
         <v>174</v>
       </c>
       <c r="P177" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -34827,7 +34833,7 @@
         <v>0.73</v>
       </c>
       <c r="AT177">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU177">
         <v>0.78</v>
@@ -35883,7 +35889,7 @@
         <v>82</v>
       </c>
       <c r="P183" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q183">
         <v>2</v>
@@ -36025,6 +36031,388 @@
       </c>
       <c r="BK183">
         <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5568297</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44998.35416666666</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>70</v>
+      </c>
+      <c r="H184" t="s">
+        <v>68</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>176</v>
+      </c>
+      <c r="P184" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q184">
+        <v>3</v>
+      </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>3.2</v>
+      </c>
+      <c r="U184">
+        <v>1.73</v>
+      </c>
+      <c r="V184">
+        <v>4.33</v>
+      </c>
+      <c r="W184">
+        <v>1.65</v>
+      </c>
+      <c r="X184">
+        <v>2.11</v>
+      </c>
+      <c r="Y184">
+        <v>4.2</v>
+      </c>
+      <c r="Z184">
+        <v>1.19</v>
+      </c>
+      <c r="AA184">
+        <v>11.5</v>
+      </c>
+      <c r="AB184">
+        <v>1.01</v>
+      </c>
+      <c r="AC184">
+        <v>2.3</v>
+      </c>
+      <c r="AD184">
+        <v>2.5</v>
+      </c>
+      <c r="AE184">
+        <v>3.8</v>
+      </c>
+      <c r="AF184">
+        <v>1.11</v>
+      </c>
+      <c r="AG184">
+        <v>5.3</v>
+      </c>
+      <c r="AH184">
+        <v>1.68</v>
+      </c>
+      <c r="AI184">
+        <v>2.11</v>
+      </c>
+      <c r="AJ184">
+        <v>3.6</v>
+      </c>
+      <c r="AK184">
+        <v>1.29</v>
+      </c>
+      <c r="AL184">
+        <v>2.51</v>
+      </c>
+      <c r="AM184">
+        <v>1.44</v>
+      </c>
+      <c r="AN184">
+        <v>1.27</v>
+      </c>
+      <c r="AO184">
+        <v>1.36</v>
+      </c>
+      <c r="AP184">
+        <v>1.56</v>
+      </c>
+      <c r="AQ184">
+        <v>1.55</v>
+      </c>
+      <c r="AR184">
+        <v>0.64</v>
+      </c>
+      <c r="AS184">
+        <v>1.67</v>
+      </c>
+      <c r="AT184">
+        <v>0.58</v>
+      </c>
+      <c r="AU184">
+        <v>0.86</v>
+      </c>
+      <c r="AV184">
+        <v>0.92</v>
+      </c>
+      <c r="AW184">
+        <v>1.78</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>4</v>
+      </c>
+      <c r="BG184">
+        <v>5</v>
+      </c>
+      <c r="BH184">
+        <v>0</v>
+      </c>
+      <c r="BI184">
+        <v>1</v>
+      </c>
+      <c r="BJ184">
+        <v>4</v>
+      </c>
+      <c r="BK184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5568298</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44998.39583333334</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>79</v>
+      </c>
+      <c r="H185" t="s">
+        <v>73</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>177</v>
+      </c>
+      <c r="P185" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q185">
+        <v>8</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>8</v>
+      </c>
+      <c r="T185">
+        <v>3.5</v>
+      </c>
+      <c r="U185">
+        <v>1.8</v>
+      </c>
+      <c r="V185">
+        <v>3.75</v>
+      </c>
+      <c r="W185">
+        <v>1.64</v>
+      </c>
+      <c r="X185">
+        <v>2.13</v>
+      </c>
+      <c r="Y185">
+        <v>4.15</v>
+      </c>
+      <c r="Z185">
+        <v>1.19</v>
+      </c>
+      <c r="AA185">
+        <v>11.5</v>
+      </c>
+      <c r="AB185">
+        <v>1.01</v>
+      </c>
+      <c r="AC185">
+        <v>2.63</v>
+      </c>
+      <c r="AD185">
+        <v>2.6</v>
+      </c>
+      <c r="AE185">
+        <v>2.8</v>
+      </c>
+      <c r="AF185">
+        <v>1.1</v>
+      </c>
+      <c r="AG185">
+        <v>5.35</v>
+      </c>
+      <c r="AH185">
+        <v>1.68</v>
+      </c>
+      <c r="AI185">
+        <v>2.1</v>
+      </c>
+      <c r="AJ185">
+        <v>3.1</v>
+      </c>
+      <c r="AK185">
+        <v>1.36</v>
+      </c>
+      <c r="AL185">
+        <v>2.28</v>
+      </c>
+      <c r="AM185">
+        <v>1.53</v>
+      </c>
+      <c r="AN185">
+        <v>1.36</v>
+      </c>
+      <c r="AO185">
+        <v>1.37</v>
+      </c>
+      <c r="AP185">
+        <v>1.43</v>
+      </c>
+      <c r="AQ185">
+        <v>0.27</v>
+      </c>
+      <c r="AR185">
+        <v>0.45</v>
+      </c>
+      <c r="AS185">
+        <v>0.33</v>
+      </c>
+      <c r="AT185">
+        <v>0.5</v>
+      </c>
+      <c r="AU185">
+        <v>0.99</v>
+      </c>
+      <c r="AV185">
+        <v>0.78</v>
+      </c>
+      <c r="AW185">
+        <v>1.77</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>4</v>
+      </c>
+      <c r="BG185">
+        <v>2</v>
+      </c>
+      <c r="BH185">
+        <v>7</v>
+      </c>
+      <c r="BI185">
+        <v>1</v>
+      </c>
+      <c r="BJ185">
+        <v>11</v>
+      </c>
+      <c r="BK185">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT3" t="n">
         <v>1.92</v>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT5" t="n">
         <v>1.33</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT6" t="n">
         <v>0.33</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.75</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>2.17</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT12" t="n">
         <v>0.58</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3390694</v>
+        <v>3390695</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3215,182 +3215,182 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Havadar</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Naft Masjed Soleyman</t>
         </is>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI14" t="n">
         <v>3</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>['27', '40', '55']</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>-1</v>
-      </c>
       <c r="BJ14" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK14" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -3398,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3390695</v>
+        <v>3390694</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3418,119 +3418,119 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Havadar</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Naft Masjed Soleyman</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>['27', '40', '55']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="T15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.24</v>
+        <v>3.48</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.94</v>
+        <v>6.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.1</v>
+        <v>2.51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3578,22 +3578,22 @@
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG15" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH15" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BI15" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BJ15" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BK15" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -3745,7 +3745,7 @@
         <v>0.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT19" t="n">
         <v>0.33</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -4963,7 +4963,7 @@
         <v>0.83</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU22" t="n">
         <v>1.44</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.07</v>
@@ -5225,7 +5225,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3392368</v>
+        <v>3392367</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -5245,182 +5245,182 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tractor Sazi</t>
+          <t>Sepahan</t>
         </is>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
         <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['61', '87']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['43', '51']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH24" t="n">
         <v>5</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>['3', '18', '90+3']</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>['52', '58']</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>2</v>
-      </c>
       <c r="BI24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -5428,7 +5428,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>3392367</v>
+        <v>3392368</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -5448,182 +5448,182 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sepahan</t>
+          <t>Tractor Sazi</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>['61', '87']</t>
+          <t>['3', '18', '90+3']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>['43', '51']</t>
+          <t>['52', '58']</t>
         </is>
       </c>
       <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
         <v>7</v>
       </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>8</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AQ25" t="n">
+      <c r="BG25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI25" t="n">
         <v>3</v>
       </c>
-      <c r="AR25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -5631,7 +5631,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>3392369</v>
+        <v>3392370</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -5651,128 +5651,128 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['39']</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.72</v>
+        <v>3.02</v>
       </c>
       <c r="AE26" t="n">
-        <v>3.26</v>
+        <v>2.44</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AL26" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1.27</v>
       </c>
       <c r="AT26" t="n">
         <v>0.58</v>
@@ -5781,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="AX26" t="n">
         <v>0</v>
@@ -5811,22 +5811,22 @@
         <v>0</v>
       </c>
       <c r="BF26" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG26" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH26" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BI26" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ26" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BK26" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -5834,7 +5834,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>3392370</v>
+        <v>3392369</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5854,140 +5854,140 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>['63']</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>['39']</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>-1</v>
-      </c>
       <c r="R27" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.02</v>
+        <v>2.72</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.44</v>
+        <v>3.26</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AK27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
       </c>
       <c r="AV27" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AX27" t="n">
         <v>0</v>
@@ -6014,22 +6014,22 @@
         <v>0</v>
       </c>
       <c r="BF27" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG27" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH27" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI27" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ27" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK27" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT29" t="n">
         <v>2.17</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.75</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU31" t="n">
         <v>0.98</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>1.12</v>
@@ -7255,7 +7255,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>3392378</v>
+        <v>3392377</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -7275,140 +7275,140 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tractor Sazi</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>2</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
+          <t>['72', '88']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>['2', '90+3']</t>
-        </is>
-      </c>
       <c r="Q34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
-        <v>2.01</v>
+        <v>2.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AA34" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="AE34" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AG34" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="AK34" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AL34" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AP34" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
         <v>1.42</v>
       </c>
-      <c r="AQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AT34" t="n">
-        <v>1.64</v>
+        <v>0.33</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.07</v>
+        <v>1.85</v>
       </c>
       <c r="AV34" t="n">
-        <v>1.15</v>
+        <v>0.45</v>
       </c>
       <c r="AW34" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AX34" t="n">
         <v>0</v>
@@ -7435,22 +7435,22 @@
         <v>0</v>
       </c>
       <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH34" t="n">
         <v>8</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>14</v>
       </c>
       <c r="BI34" t="n">
         <v>3</v>
       </c>
       <c r="BJ34" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="BK34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -7458,7 +7458,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>3392377</v>
+        <v>3392378</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -7478,182 +7478,182 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Tractor Sazi</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>2</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['72', '88']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2', '90+3']</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AG35" t="n">
         <v>5</v>
       </c>
-      <c r="S35" t="n">
+      <c r="AH35" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
         <v>8</v>
       </c>
-      <c r="T35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>3</v>
-      </c>
       <c r="BG35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH35" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BI35" t="n">
         <v>3</v>
       </c>
       <c r="BJ35" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="BK35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -7805,7 +7805,7 @@
         <v>0.83</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU36" t="n">
         <v>1.44</v>
@@ -8270,7 +8270,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>3392382</v>
+        <v>3392381</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8290,86 +8290,86 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Naft Masjed Soleyman</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['18']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['64', '75']</t>
         </is>
       </c>
       <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
         <v>6</v>
       </c>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U39" t="n">
         <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X39" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="Y39" t="n">
         <v>4</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AA39" t="n">
         <v>10.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AE39" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AF39" t="n">
         <v>1.15</v>
@@ -8378,10 +8378,10 @@
         <v>5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="AJ39" t="n">
         <v>3.1</v>
@@ -8390,40 +8390,40 @@
         <v>1.36</v>
       </c>
       <c r="AL39" t="n">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AN39" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR39" t="n">
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.25</v>
+        <v>0.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>0.42</v>
       </c>
       <c r="AU39" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.53</v>
+        <v>1.16</v>
       </c>
       <c r="AW39" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="AX39" t="n">
         <v>0</v>
@@ -8453,19 +8453,19 @@
         <v>2</v>
       </c>
       <c r="BG39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH39" t="n">
         <v>5</v>
       </c>
       <c r="BI39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ39" t="n">
         <v>7</v>
       </c>
       <c r="BK39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -8473,7 +8473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>3392381</v>
+        <v>3392382</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8493,86 +8493,86 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Naft Masjed Soleyman</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['18']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['64', '75']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U40" t="n">
         <v>1.8</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W40" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X40" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="Y40" t="n">
         <v>4</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AA40" t="n">
         <v>10.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AF40" t="n">
         <v>1.15</v>
@@ -8581,10 +8581,10 @@
         <v>5</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AI40" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="AJ40" t="n">
         <v>3.1</v>
@@ -8593,40 +8593,40 @@
         <v>1.36</v>
       </c>
       <c r="AL40" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AO40" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AP40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU40" t="n">
         <v>1.53</v>
       </c>
-      <c r="AQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AV40" t="n">
-        <v>1.16</v>
+        <v>0.53</v>
       </c>
       <c r="AW40" t="n">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="AX40" t="n">
         <v>0</v>
@@ -8656,19 +8656,19 @@
         <v>2</v>
       </c>
       <c r="BG40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BH40" t="n">
         <v>5</v>
       </c>
       <c r="BI40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ40" t="n">
         <v>7</v>
       </c>
       <c r="BK40" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT41" t="n">
         <v>0.75</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU42" t="n">
         <v>1.32</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT43" t="n">
         <v>0.58</v>
@@ -9426,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU44" t="n">
         <v>0.9</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>1.18</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU46" t="n">
         <v>0.9</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU47" t="n">
         <v>1.31</v>
@@ -10238,10 +10238,10 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT49" t="n">
         <v>0.42</v>
@@ -10909,7 +10909,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>3954826</v>
+        <v>3954832</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -10929,42 +10929,42 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q52" t="n">
         <v>-1</v>
       </c>
@@ -11044,25 +11044,25 @@
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS52" t="n">
         <v>1.67</v>
       </c>
-      <c r="AR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AU52" t="n">
-        <v>1.37</v>
+        <v>0.86</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AW52" t="n">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AX52" t="n">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>3954832</v>
+        <v>3954826</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -11132,35 +11132,35 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -11247,25 +11247,25 @@
         <v>0</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR53" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.86</v>
+        <v>1.37</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AW53" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AX53" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU55" t="n">
         <v>1.02</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12268,10 +12268,10 @@
         <v>1.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU58" t="n">
         <v>1.15</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.37</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -12877,10 +12877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU61" t="n">
         <v>0.9</v>
@@ -13080,10 +13080,10 @@
         <v>1.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU62" t="n">
         <v>1.31</v>
@@ -13283,10 +13283,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13486,10 +13486,10 @@
         <v>2.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -15313,10 +15313,10 @@
         <v>1.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU73" t="n">
         <v>1.17</v>
@@ -15516,10 +15516,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.69</v>
@@ -15719,10 +15719,10 @@
         <v>0.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU75" t="n">
         <v>0.9</v>
@@ -15922,10 +15922,10 @@
         <v>2.2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU76" t="n">
         <v>0</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU77" t="n">
         <v>1.15</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>1.37</v>
@@ -16531,7 +16531,7 @@
         <v>0.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT79" t="n">
         <v>1.33</v>
@@ -16737,7 +16737,7 @@
         <v>1.75</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU80" t="n">
         <v>1.38</v>
@@ -16999,7 +16999,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>4291102</v>
+        <v>4291103</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -17019,140 +17019,140 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
         <v>4</v>
       </c>
-      <c r="S82" t="n">
-        <v>5</v>
-      </c>
       <c r="T82" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="U82" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V82" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="W82" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="X82" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y82" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AA82" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AB82" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC82" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="AD82" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="AE82" t="n">
-        <v>2.65</v>
+        <v>6</v>
       </c>
       <c r="AF82" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AG82" t="n">
-        <v>4.8</v>
+        <v>6.25</v>
       </c>
       <c r="AH82" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AI82" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="AJ82" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AL82" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="AM82" t="n">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AN82" t="n">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="AO82" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR82" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AS82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT82" t="n">
         <v>0.33</v>
       </c>
-      <c r="AT82" t="n">
-        <v>0.75</v>
-      </c>
       <c r="AU82" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="AV82" t="n">
-        <v>1.07</v>
+        <v>0.76</v>
       </c>
       <c r="AW82" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="AX82" t="n">
         <v>0</v>
@@ -17179,22 +17179,22 @@
         <v>0</v>
       </c>
       <c r="BF82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG82" t="n">
         <v>2</v>
       </c>
       <c r="BH82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI82" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BJ82" t="n">
         <v>6</v>
       </c>
       <c r="BK82" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -17202,7 +17202,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>4291103</v>
+        <v>4291102</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -17222,140 +17222,140 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X83" t="n">
         <v>2.1</v>
       </c>
-      <c r="U83" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V83" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="W83" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X83" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Y83" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AA83" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC83" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD83" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="AE83" t="n">
-        <v>6</v>
+        <v>2.65</v>
       </c>
       <c r="AF83" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AG83" t="n">
-        <v>6.25</v>
+        <v>4.8</v>
       </c>
       <c r="AH83" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AI83" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="AJ83" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="AK83" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AL83" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="AM83" t="n">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AN83" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="AO83" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR83" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AU83" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="AV83" t="n">
-        <v>0.76</v>
+        <v>1.07</v>
       </c>
       <c r="AW83" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="AX83" t="n">
         <v>0</v>
@@ -17382,22 +17382,22 @@
         <v>0</v>
       </c>
       <c r="BF83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG83" t="n">
         <v>2</v>
       </c>
       <c r="BH83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI83" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BJ83" t="n">
         <v>6</v>
       </c>
       <c r="BK83" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -17549,7 +17549,7 @@
         <v>1.25</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.32</v>
@@ -17952,7 +17952,7 @@
         <v>2.2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT86" t="n">
         <v>1.92</v>
@@ -18561,10 +18561,10 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU89" t="n">
         <v>0</v>
@@ -18764,10 +18764,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU90" t="n">
         <v>1.4</v>
@@ -18967,7 +18967,7 @@
         <v>0.83</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT91" t="n">
         <v>1.33</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
         <v>1.92</v>
@@ -19376,7 +19376,7 @@
         <v>1.67</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU93" t="n">
         <v>0.86</v>
@@ -19579,7 +19579,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU94" t="n">
         <v>1.38</v>
@@ -19779,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>0.78</v>
@@ -19982,10 +19982,10 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU96" t="n">
         <v>1.15</v>
@@ -20185,10 +20185,10 @@
         <v>2.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU97" t="n">
         <v>1.37</v>
@@ -20247,7 +20247,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>4613462</v>
+        <v>4613466</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -20267,12 +20267,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Sepahan</t>
+          <t>Havadar</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Naft Masjed Soleyman</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -20285,122 +20285,122 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['43', '69', '72', '88']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R98" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S98" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T98" t="n">
-        <v>1.91</v>
+        <v>3.6</v>
       </c>
       <c r="U98" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V98" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="W98" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="X98" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="Y98" t="n">
-        <v>3.08</v>
+        <v>4.14</v>
       </c>
       <c r="Z98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN98" t="n">
         <v>1.31</v>
       </c>
-      <c r="AA98" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC98" t="n">
+      <c r="AO98" t="n">
         <v>1.36</v>
       </c>
-      <c r="AD98" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO98" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AP98" t="n">
-        <v>2.72</v>
+        <v>1.48</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR98" t="n">
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.36</v>
+        <v>0.83</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="AU98" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AV98" t="n">
-        <v>1.58</v>
+        <v>0.6</v>
       </c>
       <c r="AW98" t="n">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="AX98" t="n">
         <v>0</v>
@@ -20427,22 +20427,22 @@
         <v>0</v>
       </c>
       <c r="BF98" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG98" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI98" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ98" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK98" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -20450,7 +20450,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>4613466</v>
+        <v>4613462</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -20470,12 +20470,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Havadar</t>
+          <t>Sepahan</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Naft Masjed Soleyman</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -20488,122 +20488,122 @@
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['43', '69', '72', '88']</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S99" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T99" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="U99" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="V99" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="W99" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="X99" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="Y99" t="n">
-        <v>4.14</v>
+        <v>3.08</v>
       </c>
       <c r="Z99" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO99" t="n">
         <v>1.18</v>
       </c>
-      <c r="AA99" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AM99" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO99" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AP99" t="n">
-        <v>1.48</v>
+        <v>2.72</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR99" t="n">
         <v>0.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.83</v>
+        <v>2.42</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="AU99" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AV99" t="n">
-        <v>0.6</v>
+        <v>1.58</v>
       </c>
       <c r="AW99" t="n">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="AX99" t="n">
         <v>0</v>
@@ -20630,22 +20630,22 @@
         <v>0</v>
       </c>
       <c r="BF99" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG99" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BH99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BI99" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BJ99" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BK99" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -20653,7 +20653,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>4613463</v>
+        <v>4613464</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -20673,12 +20673,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -20691,122 +20691,122 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R100" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S100" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="T100" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC100" t="n">
         <v>1.67</v>
       </c>
-      <c r="V100" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W100" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X100" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AD100" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AE100" t="n">
-        <v>3.55</v>
+        <v>6.25</v>
       </c>
       <c r="AF100" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AG100" t="n">
-        <v>4.95</v>
+        <v>5.35</v>
       </c>
       <c r="AH100" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AI100" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="AJ100" t="n">
-        <v>3.09</v>
+        <v>2.65</v>
       </c>
       <c r="AK100" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AL100" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="AM100" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AN100" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AO100" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="AR100" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AU100" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AV100" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AW100" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AX100" t="n">
         <v>0</v>
@@ -20833,22 +20833,22 @@
         <v>0</v>
       </c>
       <c r="BF100" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG100" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH100" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BI100" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BJ100" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BK100" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -20856,7 +20856,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>4613464</v>
+        <v>4613463</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -20876,12 +20876,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -20894,122 +20894,122 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R101" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S101" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T101" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U101" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V101" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="W101" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="X101" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD101" t="n">
         <v>2.1</v>
       </c>
-      <c r="Y101" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>2.75</v>
-      </c>
       <c r="AE101" t="n">
-        <v>6.25</v>
+        <v>3.55</v>
       </c>
       <c r="AF101" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AG101" t="n">
-        <v>5.35</v>
+        <v>4.95</v>
       </c>
       <c r="AH101" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AI101" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="AJ101" t="n">
-        <v>2.65</v>
+        <v>3.09</v>
       </c>
       <c r="AK101" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AL101" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="AM101" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AN101" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AO101" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR101" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="AU101" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AV101" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AW101" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AX101" t="n">
         <v>0</v>
@@ -21036,22 +21036,22 @@
         <v>0</v>
       </c>
       <c r="BF101" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG101" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH101" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI101" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ101" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK101" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -21812,7 +21812,7 @@
         <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU105" t="n">
         <v>0.86</v>
@@ -22012,10 +22012,10 @@
         <v>1.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU106" t="n">
         <v>0.78</v>
@@ -22215,7 +22215,7 @@
         <v>1.14</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT107" t="n">
         <v>1.33</v>
@@ -22421,7 +22421,7 @@
         <v>1.25</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU108" t="n">
         <v>1.35</v>
@@ -22621,7 +22621,7 @@
         <v>0.43</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT109" t="n">
         <v>0.5</v>
@@ -22824,7 +22824,7 @@
         <v>1.86</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT110" t="n">
         <v>1.92</v>
@@ -23027,10 +23027,10 @@
         <v>1.29</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU111" t="n">
         <v>1.4</v>
@@ -23233,7 +23233,7 @@
         <v>1.75</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU112" t="n">
         <v>1.38</v>
@@ -23436,7 +23436,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU113" t="n">
         <v>1.92</v>
@@ -23639,7 +23639,7 @@
         <v>0.83</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU114" t="n">
         <v>1.01</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT115" t="n">
         <v>0.75</v>
@@ -24042,7 +24042,7 @@
         <v>0.29</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT116" t="n">
         <v>0.33</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT118" t="n">
         <v>0.42</v>
@@ -24654,7 +24654,7 @@
         <v>0.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU119" t="n">
         <v>0.83</v>
@@ -25060,7 +25060,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU121" t="n">
         <v>1.92</v>
@@ -25260,7 +25260,7 @@
         <v>0.88</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>0.75</v>
@@ -25463,7 +25463,7 @@
         <v>0.71</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT123" t="n">
         <v>0.58</v>
@@ -25666,7 +25666,7 @@
         <v>2.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT124" t="n">
         <v>2.17</v>
@@ -25869,7 +25869,7 @@
         <v>0.57</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT125" t="n">
         <v>0.42</v>
@@ -26075,7 +26075,7 @@
         <v>1.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU126" t="n">
         <v>1.15</v>
@@ -26278,7 +26278,7 @@
         <v>0.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU127" t="n">
         <v>0.83</v>
@@ -26481,7 +26481,7 @@
         <v>0.83</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU128" t="n">
         <v>1.15</v>
@@ -26684,7 +26684,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU129" t="n">
         <v>1.96</v>
@@ -26743,7 +26743,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>5080133</v>
+        <v>5080132</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -26763,140 +26763,140 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Esteghlal</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sepahan</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
+          <t>['37', '44', '77', '87']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>['-1']</t>
-        </is>
-      </c>
       <c r="Q130" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R130" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S130" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T130" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="U130" t="n">
         <v>1.83</v>
       </c>
       <c r="V130" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="W130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AH130" t="n">
         <v>1.57</v>
-      </c>
-      <c r="X130" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>1.55</v>
       </c>
       <c r="AI130" t="n">
         <v>2.3</v>
       </c>
       <c r="AJ130" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="AK130" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AL130" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="AM130" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AN130" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AO130" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AR130" t="n">
-        <v>1.63</v>
+        <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.92</v>
+        <v>0.5</v>
       </c>
       <c r="AU130" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AV130" t="n">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AW130" t="n">
-        <v>2.39</v>
+        <v>2.27</v>
       </c>
       <c r="AX130" t="n">
         <v>0</v>
@@ -26923,22 +26923,22 @@
         <v>0</v>
       </c>
       <c r="BF130" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BG130" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH130" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI130" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ130" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK130" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -26946,7 +26946,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>5080132</v>
+        <v>5080133</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -26966,140 +26966,140 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Esteghlal</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Sepahan</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['37', '44', '77', '87']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['-1']</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R131" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S131" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="T131" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="U131" t="n">
         <v>1.83</v>
       </c>
       <c r="V131" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="W131" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X131" t="n">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="Y131" t="n">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AA131" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AC131" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD131" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AE131" t="n">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="AF131" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AG131" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AH131" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AI131" t="n">
         <v>2.3</v>
       </c>
       <c r="AJ131" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="AK131" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AL131" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="AM131" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AN131" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="AO131" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AR131" t="n">
-        <v>0.5</v>
+        <v>1.63</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5</v>
+        <v>1.92</v>
       </c>
       <c r="AU131" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AV131" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AW131" t="n">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="AX131" t="n">
         <v>0</v>
@@ -27126,22 +27126,22 @@
         <v>0</v>
       </c>
       <c r="BF131" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BG131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BH131" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BI131" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BJ131" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BK131" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
@@ -27149,7 +27149,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>5080134</v>
+        <v>5080136</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -27169,158 +27169,158 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
         <v>4</v>
       </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>['23', '45+1', '83']</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>['55']</t>
-        </is>
-      </c>
-      <c r="Q132" t="n">
-        <v>-1</v>
-      </c>
       <c r="R132" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S132" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T132" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U132" t="n">
         <v>1.73</v>
       </c>
       <c r="V132" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="W132" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X132" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Y132" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z132" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AA132" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB132" t="n">
         <v>1.02</v>
       </c>
       <c r="AC132" t="n">
-        <v>1.95</v>
+        <v>2.56</v>
       </c>
       <c r="AD132" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="AE132" t="n">
-        <v>5</v>
+        <v>2.98</v>
       </c>
       <c r="AF132" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AG132" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AH132" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AI132" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AJ132" t="n">
-        <v>2.94</v>
+        <v>3.09</v>
       </c>
       <c r="AK132" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AL132" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="AM132" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AN132" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AO132" t="n">
         <v>1.44</v>
       </c>
       <c r="AP132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA132" t="n">
         <v>1.73</v>
       </c>
-      <c r="AQ132" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR132" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS132" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT132" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AU132" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AV132" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AW132" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AX132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ132" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA132" t="n">
-        <v>0</v>
-      </c>
       <c r="BB132" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BC132" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BD132" t="n">
         <v>0</v>
@@ -27329,22 +27329,22 @@
         <v>0</v>
       </c>
       <c r="BF132" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG132" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH132" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI132" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ132" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK132" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -27352,7 +27352,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>5080135</v>
+        <v>5080134</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -27372,40 +27372,40 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Tractor Sazi</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
         <v>2</v>
       </c>
-      <c r="K133" t="n">
+      <c r="L133" t="n">
         <v>3</v>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
       <c r="M133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
         <v>4</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>['39']</t>
+          <t>['23', '45+1', '83']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>['30', '45+9', '63']</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q133" t="n">
@@ -27418,94 +27418,94 @@
         <v>-1</v>
       </c>
       <c r="T133" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="U133" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V133" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="W133" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="X133" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="Y133" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AA133" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AB133" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AC133" t="n">
-        <v>2.47</v>
+        <v>1.95</v>
       </c>
       <c r="AD133" t="n">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="AE133" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="AF133" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AG133" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="AH133" t="n">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="AI133" t="n">
-        <v>2.43</v>
+        <v>1.8</v>
       </c>
       <c r="AJ133" t="n">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="AK133" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AL133" t="n">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="AM133" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AN133" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AO133" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR133" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.64</v>
+        <v>0.75</v>
       </c>
       <c r="AU133" t="n">
-        <v>0.86</v>
+        <v>1.92</v>
       </c>
       <c r="AV133" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="AW133" t="n">
-        <v>1.78</v>
+        <v>2.82</v>
       </c>
       <c r="AX133" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>5080136</v>
+        <v>5080135</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -27575,140 +27575,140 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Tractor Sazi</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>['66']</t>
+          <t>['39']</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['30', '45+9', '63']</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R134" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="S134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA134" t="n">
         <v>12</v>
       </c>
-      <c r="T134" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U134" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V134" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W134" t="n">
+      <c r="AB134" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT134" t="n">
         <v>1.75</v>
       </c>
-      <c r="X134" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Y134" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Z134" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AA134" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB134" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AK134" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AL134" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AM134" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AN134" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO134" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AP134" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AQ134" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR134" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AS134" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AU134" t="n">
-        <v>1.22</v>
+        <v>0.86</v>
       </c>
       <c r="AV134" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AW134" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AX134" t="n">
         <v>0</v>
@@ -27720,13 +27720,13 @@
         <v>0</v>
       </c>
       <c r="BA134" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BB134" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BC134" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="BD134" t="n">
         <v>0</v>
@@ -27735,22 +27735,22 @@
         <v>0</v>
       </c>
       <c r="BF134" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BG134" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH134" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BI134" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BJ134" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BK134" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
@@ -28102,10 +28102,10 @@
         <v>1.29</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU136" t="n">
         <v>0.78</v>
@@ -28308,7 +28308,7 @@
         <v>1.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU137" t="n">
         <v>1.35</v>
@@ -28511,7 +28511,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU138" t="n">
         <v>1.96</v>
@@ -28711,7 +28711,7 @@
         <v>0.75</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
         <v>0.58</v>
@@ -28914,10 +28914,10 @@
         <v>2</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU140" t="n">
         <v>1.17</v>
@@ -29120,7 +29120,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU141" t="n">
         <v>1.11</v>
@@ -29320,7 +29320,7 @@
         <v>0.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT142" t="n">
         <v>0.42</v>
@@ -29523,10 +29523,10 @@
         <v>0.63</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU143" t="n">
         <v>1.17</v>
@@ -29585,7 +29585,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>5080147</v>
+        <v>5080146</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -29605,40 +29605,40 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Havadar</t>
+          <t>Esteghlal</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N144" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10', '90+7']</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>['62']</t>
+          <t>['19', '70', '73']</t>
         </is>
       </c>
       <c r="Q144" t="n">
@@ -29651,46 +29651,46 @@
         <v>-1</v>
       </c>
       <c r="T144" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="U144" t="n">
         <v>1.73</v>
       </c>
       <c r="V144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y144" t="n">
         <v>3.75</v>
       </c>
-      <c r="W144" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X144" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Z144" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AA144" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB144" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AC144" t="n">
-        <v>2.65</v>
+        <v>5</v>
       </c>
       <c r="AD144" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="AE144" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="AF144" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AG144" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AH144" t="n">
         <v>1.74</v>
@@ -29699,46 +29699,46 @@
         <v>2.03</v>
       </c>
       <c r="AJ144" t="n">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="AK144" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AL144" t="n">
-        <v>2.45</v>
+        <v>2.71</v>
       </c>
       <c r="AM144" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AN144" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO144" t="n">
         <v>1.33</v>
       </c>
-      <c r="AO144" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AP144" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR144" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.45</v>
+        <v>2.17</v>
       </c>
       <c r="AU144" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="AV144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW144" t="n">
-        <v>1.89</v>
+        <v>0.93</v>
       </c>
       <c r="AX144" t="n">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>5080146</v>
+        <v>5080147</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -29808,40 +29808,40 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Esteghlal</t>
+          <t>Havadar</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>['10', '90+7']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>['19', '70', '73']</t>
+          <t>['62']</t>
         </is>
       </c>
       <c r="Q145" t="n">
@@ -29854,46 +29854,46 @@
         <v>-1</v>
       </c>
       <c r="T145" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="U145" t="n">
         <v>1.73</v>
       </c>
       <c r="V145" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="W145" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X145" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y145" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Z145" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AA145" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB145" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AC145" t="n">
-        <v>5</v>
+        <v>2.65</v>
       </c>
       <c r="AD145" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE145" t="n">
         <v>2.9</v>
       </c>
-      <c r="AE145" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AF145" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AG145" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AH145" t="n">
         <v>1.74</v>
@@ -29902,46 +29902,46 @@
         <v>2.03</v>
       </c>
       <c r="AJ145" t="n">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="AK145" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AL145" t="n">
-        <v>2.71</v>
+        <v>2.45</v>
       </c>
       <c r="AM145" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AN145" t="n">
-        <v>2.07</v>
+        <v>1.33</v>
       </c>
       <c r="AO145" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.5</v>
+        <v>0.38</v>
       </c>
       <c r="AR145" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.45</v>
+        <v>0.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AU145" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AV145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW145" t="n">
-        <v>0.93</v>
+        <v>1.89</v>
       </c>
       <c r="AX145" t="n">
         <v>0</v>
@@ -30335,7 +30335,7 @@
         <v>0.78</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT147" t="n">
         <v>0.75</v>
@@ -30538,7 +30538,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT148" t="n">
         <v>0.42</v>
@@ -30947,7 +30947,7 @@
         <v>0.83</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU150" t="n">
         <v>1.08</v>
@@ -31556,7 +31556,7 @@
         <v>0.33</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU153" t="n">
         <v>0.89</v>
@@ -31756,7 +31756,7 @@
         <v>2.11</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT154" t="n">
         <v>2.17</v>
@@ -31962,7 +31962,7 @@
         <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU155" t="n">
         <v>1.93</v>
@@ -32162,10 +32162,10 @@
         <v>1.78</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU156" t="n">
         <v>0</v>
@@ -32368,7 +32368,7 @@
         <v>1.75</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU157" t="n">
         <v>1.1</v>
@@ -32568,10 +32568,10 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU158" t="n">
         <v>1.25</v>
@@ -32771,7 +32771,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT159" t="n">
         <v>0.58</v>
@@ -32974,10 +32974,10 @@
         <v>0.89</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU160" t="n">
         <v>0.78</v>
@@ -33177,10 +33177,10 @@
         <v>0.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU161" t="n">
         <v>1.1</v>
@@ -34192,7 +34192,7 @@
         <v>2.2</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT166" t="n">
         <v>2.17</v>
@@ -34601,7 +34601,7 @@
         <v>0.33</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU168" t="n">
         <v>0.91</v>
@@ -35004,10 +35004,10 @@
         <v>0.6</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU170" t="n">
         <v>1.27</v>
@@ -35210,7 +35210,7 @@
         <v>1.5</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU171" t="n">
         <v>1.86</v>
@@ -35410,10 +35410,10 @@
         <v>0.9</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU172" t="n">
         <v>1.25</v>
@@ -35613,10 +35613,10 @@
         <v>1.6</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU173" t="n">
         <v>1.08</v>
@@ -35816,10 +35816,10 @@
         <v>1.2</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU174" t="n">
         <v>0.93</v>
@@ -36019,10 +36019,10 @@
         <v>1.3</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU175" t="n">
         <v>0</v>
@@ -36222,10 +36222,10 @@
         <v>1.9</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU176" t="n">
         <v>1.36</v>
@@ -36425,7 +36425,7 @@
         <v>0.6</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT177" t="n">
         <v>0.58</v>
@@ -38104,6 +38104,1630 @@
       </c>
       <c r="BK185" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5568299</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45015.52083333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Mes Kerman</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T186" t="n">
+        <v>4</v>
+      </c>
+      <c r="U186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X186" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5568300</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45015.53125</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Naft Masjed Soleyman</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Tractor Sazi</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>5</v>
+      </c>
+      <c r="N187" t="n">
+        <v>6</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['19', '30', '52', '83', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T187" t="n">
+        <v>6</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5568301</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45015.53125</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Havadar</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['4', '34']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V188" t="n">
+        <v>4</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5568302</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45015.54166666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['24', '73']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>3</v>
+      </c>
+      <c r="T189" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5568304</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45016.53125</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>7</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
+      <c r="S190" t="n">
+        <v>7</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V190" t="n">
+        <v>15</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5568303</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45016.54166666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['6', '80']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T191" t="n">
+        <v>4</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5568305</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45016.54166666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Esteghlal</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['20', '63']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
+      <c r="R192" t="n">
+        <v>4</v>
+      </c>
+      <c r="S192" t="n">
+        <v>6</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2</v>
+      </c>
+      <c r="V192" t="n">
+        <v>13</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5568306</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F193" t="n">
+        <v>24</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T193" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iran Persian Gulf Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.17</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.92</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT4" t="n">
         <v>1.58</v>
@@ -1715,7 +1715,7 @@
         <v>0.67</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT8" t="n">
         <v>0.75</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.42</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT13" t="n">
         <v>0.58</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.42</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT16" t="n">
         <v>1.25</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT17" t="n">
         <v>1.33</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4354,7 +4354,7 @@
         <v>1.92</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU19" t="n">
         <v>0.86</v>
@@ -4557,7 +4557,7 @@
         <v>0.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.42</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT22" t="n">
         <v>0.75</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT23" t="n">
         <v>2.25</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT25" t="n">
         <v>1.75</v>
@@ -5978,7 +5978,7 @@
         <v>1.17</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.42</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT30" t="n">
         <v>1.58</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT31" t="n">
         <v>0.75</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT33" t="n">
         <v>1.25</v>
@@ -7399,7 +7399,7 @@
         <v>1.42</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU34" t="n">
         <v>1.85</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT35" t="n">
         <v>1.75</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT36" t="n">
         <v>2.25</v>
@@ -8005,10 +8005,10 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU37" t="n">
         <v>0.85</v>
@@ -8211,7 +8211,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU38" t="n">
         <v>1.24</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU39" t="n">
         <v>1.01</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT40" t="n">
         <v>1.33</v>
@@ -8820,7 +8820,7 @@
         <v>1.92</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU41" t="n">
         <v>1.07</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT42" t="n">
         <v>0.75</v>
@@ -9226,7 +9226,7 @@
         <v>1.92</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU43" t="n">
         <v>1.34</v>
@@ -9429,7 +9429,7 @@
         <v>1.17</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU44" t="n">
         <v>0.9</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT47" t="n">
         <v>1.58</v>
@@ -10444,7 +10444,7 @@
         <v>1.42</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU49" t="n">
         <v>1.69</v>
@@ -10644,10 +10644,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU50" t="n">
         <v>1.92</v>
@@ -10850,7 +10850,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU51" t="n">
         <v>1.38</v>
@@ -11050,10 +11050,10 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU52" t="n">
         <v>0.86</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.37</v>
@@ -11456,10 +11456,10 @@
         <v>1.67</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU54" t="n">
         <v>1</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT55" t="n">
         <v>1.75</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT56" t="n">
         <v>1.33</v>
@@ -13080,7 +13080,7 @@
         <v>1.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT62" t="n">
         <v>1.75</v>
@@ -13286,7 +13286,7 @@
         <v>0.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>1.75</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU65" t="n">
         <v>1.38</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT66" t="n">
         <v>1.33</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU67" t="n">
         <v>0.89</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU68" t="n">
         <v>1.37</v>
@@ -14501,10 +14501,10 @@
         <v>0.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU69" t="n">
         <v>1</v>
@@ -14704,10 +14704,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU70" t="n">
         <v>1.76</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU71" t="n">
         <v>1.92</v>
@@ -15110,10 +15110,10 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU72" t="n">
         <v>0.86</v>
@@ -16937,10 +16937,10 @@
         <v>0.2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU81" t="n">
         <v>1.96</v>
@@ -17140,10 +17140,10 @@
         <v>0.2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU82" t="n">
         <v>0.98</v>
@@ -17343,10 +17343,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU83" t="n">
         <v>0.89</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU84" t="n">
         <v>1.32</v>
@@ -17749,10 +17749,10 @@
         <v>2.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU85" t="n">
         <v>1</v>
@@ -17952,10 +17952,10 @@
         <v>2.2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU86" t="n">
         <v>1.31</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU87" t="n">
         <v>1.92</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU88" t="n">
         <v>0.86</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU92" t="n">
         <v>0</v>
@@ -19373,7 +19373,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT93" t="n">
         <v>1.25</v>
@@ -20388,10 +20388,10 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU98" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>2.42</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU99" t="n">
         <v>1.17</v>
@@ -20794,10 +20794,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU100" t="n">
         <v>1.31</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT101" t="n">
         <v>0.58</v>
@@ -21200,10 +21200,10 @@
         <v>0.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU102" t="n">
         <v>1.96</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU103" t="n">
         <v>1</v>
@@ -21606,10 +21606,10 @@
         <v>2.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU104" t="n">
         <v>0.83</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT105" t="n">
         <v>0.75</v>
@@ -22418,7 +22418,7 @@
         <v>1.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT108" t="n">
         <v>1.58</v>
@@ -22624,7 +22624,7 @@
         <v>1.42</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU109" t="n">
         <v>0.9</v>
@@ -22827,7 +22827,7 @@
         <v>1.17</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU110" t="n">
         <v>1.16</v>
@@ -23433,7 +23433,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT113" t="n">
         <v>1.33</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT114" t="n">
         <v>0.58</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU115" t="n">
         <v>1.31</v>
@@ -24045,7 +24045,7 @@
         <v>2.42</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU116" t="n">
         <v>1.17</v>
@@ -24245,10 +24245,10 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU117" t="n">
         <v>1.06</v>
@@ -24451,7 +24451,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU118" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>2.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU119" t="n">
         <v>0.83</v>
@@ -24854,10 +24854,10 @@
         <v>2.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU120" t="n">
         <v>1.96</v>
@@ -25057,10 +25057,10 @@
         <v>2.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU121" t="n">
         <v>1.92</v>
@@ -25263,7 +25263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU122" t="n">
         <v>0</v>
@@ -25463,10 +25463,10 @@
         <v>0.71</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU123" t="n">
         <v>1.31</v>
@@ -25669,7 +25669,7 @@
         <v>2.42</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU124" t="n">
         <v>1.17</v>
@@ -25872,7 +25872,7 @@
         <v>1.42</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU125" t="n">
         <v>0.9</v>
@@ -26072,7 +26072,7 @@
         <v>0.71</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT126" t="n">
         <v>0.58</v>
@@ -26275,7 +26275,7 @@
         <v>1.57</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT127" t="n">
         <v>1.33</v>
@@ -26478,7 +26478,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT128" t="n">
         <v>1.25</v>
@@ -26681,10 +26681,10 @@
         <v>2.14</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU129" t="n">
         <v>1.96</v>
@@ -26887,7 +26887,7 @@
         <v>1.92</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU130" t="n">
         <v>1.21</v>
@@ -27090,7 +27090,7 @@
         <v>1.42</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU131" t="n">
         <v>1.19</v>
@@ -27293,7 +27293,7 @@
         <v>1.17</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU132" t="n">
         <v>1.22</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT133" t="n">
         <v>0.75</v>
@@ -27696,7 +27696,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT134" t="n">
         <v>1.75</v>
@@ -28305,7 +28305,7 @@
         <v>2.25</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT137" t="n">
         <v>2.25</v>
@@ -28508,7 +28508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT138" t="n">
         <v>1.33</v>
@@ -28714,7 +28714,7 @@
         <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU139" t="n">
         <v>0</v>
@@ -28917,7 +28917,7 @@
         <v>2.42</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU140" t="n">
         <v>1.17</v>
@@ -29117,7 +29117,7 @@
         <v>1.38</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT141" t="n">
         <v>1.25</v>
@@ -29323,7 +29323,7 @@
         <v>1.17</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU142" t="n">
         <v>1.26</v>
@@ -29523,7 +29523,7 @@
         <v>0.63</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT143" t="n">
         <v>0.58</v>
@@ -29729,7 +29729,7 @@
         <v>1.42</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU144" t="n">
         <v>0.93</v>
@@ -29929,7 +29929,7 @@
         <v>1.25</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT145" t="n">
         <v>1.58</v>
@@ -30132,7 +30132,7 @@
         <v>1.11</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT146" t="n">
         <v>1.33</v>
@@ -30338,7 +30338,7 @@
         <v>1.42</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU147" t="n">
         <v>1.19</v>
@@ -30541,7 +30541,7 @@
         <v>1.92</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU148" t="n">
         <v>1.32</v>
@@ -30741,10 +30741,10 @@
         <v>1.78</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU149" t="n">
         <v>1.35</v>
@@ -30944,7 +30944,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT150" t="n">
         <v>1.75</v>
@@ -31147,10 +31147,10 @@
         <v>0.44</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU151" t="n">
         <v>0.86</v>
@@ -31353,7 +31353,7 @@
         <v>1.75</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU152" t="n">
         <v>1.38</v>
@@ -31553,7 +31553,7 @@
         <v>2</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT153" t="n">
         <v>2.25</v>
@@ -31759,7 +31759,7 @@
         <v>1.17</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU154" t="n">
         <v>1.27</v>
@@ -31959,7 +31959,7 @@
         <v>1.33</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT155" t="n">
         <v>1.25</v>
@@ -32165,7 +32165,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU156" t="n">
         <v>0</v>
@@ -32365,7 +32365,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT157" t="n">
         <v>1.58</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT158" t="n">
         <v>1.33</v>
@@ -32774,7 +32774,7 @@
         <v>1.42</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU159" t="n">
         <v>0.93</v>
@@ -33380,10 +33380,10 @@
         <v>0.3</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU162" t="n">
         <v>0.86</v>
@@ -33586,7 +33586,7 @@
         <v>1.75</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU163" t="n">
         <v>1.44</v>
@@ -33786,10 +33786,10 @@
         <v>0.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU164" t="n">
         <v>1.1</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT165" t="n">
         <v>1.33</v>
@@ -34195,7 +34195,7 @@
         <v>1.42</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU166" t="n">
         <v>1.29</v>
@@ -34395,10 +34395,10 @@
         <v>1.9</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU167" t="n">
         <v>1.75</v>
@@ -34598,7 +34598,7 @@
         <v>1.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT168" t="n">
         <v>1.75</v>
@@ -34801,10 +34801,10 @@
         <v>0.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU169" t="n">
         <v>1.25</v>
@@ -35207,7 +35207,7 @@
         <v>2.1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT171" t="n">
         <v>2.25</v>
@@ -35410,7 +35410,7 @@
         <v>0.9</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT172" t="n">
         <v>0.75</v>
@@ -36225,7 +36225,7 @@
         <v>1.92</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU176" t="n">
         <v>1.36</v>
@@ -36428,7 +36428,7 @@
         <v>0.67</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU177" t="n">
         <v>0.78</v>
@@ -36628,7 +36628,7 @@
         <v>1.18</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT178" t="n">
         <v>1.33</v>
@@ -36831,10 +36831,10 @@
         <v>1.82</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU179" t="n">
         <v>1.13</v>
@@ -37034,10 +37034,10 @@
         <v>0.73</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU180" t="n">
         <v>1.58</v>
@@ -37237,10 +37237,10 @@
         <v>0.27</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU181" t="n">
         <v>1.09</v>
@@ -37443,7 +37443,7 @@
         <v>1.75</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU182" t="n">
         <v>1.44</v>
@@ -37643,10 +37643,10 @@
         <v>2.09</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU183" t="n">
         <v>1.24</v>
@@ -37846,10 +37846,10 @@
         <v>0.64</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU184" t="n">
         <v>0.86</v>
@@ -38049,10 +38049,10 @@
         <v>0.45</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU185" t="n">
         <v>0.99</v>
@@ -39270,7 +39270,7 @@
         <v>1.42</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AU191" t="n">
         <v>1.29</v>
@@ -39673,7 +39673,7 @@
         <v>2.18</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT193" t="n">
         <v>2.25</v>
@@ -39728,6 +39728,1630 @@
       </c>
       <c r="BK193" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5568307</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45022.52083333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Naft Masjed Soleyman</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V194" t="n">
+        <v>13</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5568308</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45022.54166666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['36', '40', '82']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2</v>
+      </c>
+      <c r="R195" t="n">
+        <v>3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>5</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V195" t="n">
+        <v>9</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5568309</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45022.54166666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Mes Kerman</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['9', '90+3']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>7</v>
+      </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
+      <c r="S196" t="n">
+        <v>7</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3</v>
+      </c>
+      <c r="U196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X196" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5568310</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45022.625</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['44', '82']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>7</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2</v>
+      </c>
+      <c r="S197" t="n">
+        <v>9</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V197" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5568311</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45023.54166666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2</v>
+      </c>
+      <c r="R198" t="n">
+        <v>3</v>
+      </c>
+      <c r="S198" t="n">
+        <v>5</v>
+      </c>
+      <c r="T198" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5568312</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45023.54166666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Havadar</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>4</v>
+      </c>
+      <c r="R199" t="n">
+        <v>4</v>
+      </c>
+      <c r="S199" t="n">
+        <v>8</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3</v>
+      </c>
+      <c r="U199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V199" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5568313</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45023.54166666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Esteghlal</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>4</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2</v>
+      </c>
+      <c r="S200" t="n">
+        <v>6</v>
+      </c>
+      <c r="T200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5568314</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Iran Persian Gulf Pro League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F201" t="n">
+        <v>25</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Tractor Sazi</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>6</v>
+      </c>
+      <c r="S201" t="n">
+        <v>7</v>
+      </c>
+      <c r="T201" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
